--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_minus1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_minus1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA260BA6-E121-6947-95AE-5A4354501116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C296E-B8DB-BB4C-8E80-369B1F253BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19180" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
   </bookViews>
@@ -453,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC57624-070C-4C6C-8EF3-3B0C0B08BDC6}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1184,18 +1184,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1218,18 +1218,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>